--- a/data/gpt_examples/CProgramming1.xlsx
+++ b/data/gpt_examples/CProgramming1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCB6734-F166-4247-A721-2C0ACFD048BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44DD8BA-4645-43F5-B9A5-2E46FE66D69D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
   <si>
     <t>step</t>
   </si>
@@ -34,25 +40,55 @@
     <t>I can write a loop in C</t>
   </si>
   <si>
+    <t>Tell the user you are really happy they know so much. Then ask them to write a loop which prints out the numbers 1 to 10.</t>
+  </si>
+  <si>
     <t>Get started with for loop</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>I don't know anything about loops</t>
   </si>
   <si>
+    <t>OK let’s help the user learn about variables first. Ask the user if they can you define a variable for you?</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
     <t>loops help in repeating things in your code</t>
   </si>
   <si>
     <t>for loop</t>
   </si>
   <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
     <t>I think they help in reducing the amount of code I write</t>
   </si>
   <si>
+    <t>For loops are used to achieve repetition in programming. Can you tell me why repetition is important</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
     <t>Loop function</t>
   </si>
   <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
     <t>Loop defination</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>for(initialization; condition; increment)</t>
   </si>
   <si>
     <t>#include&lt;stdio.h&gt;
@@ -66,106 +102,247 @@
 }</t>
   </si>
   <si>
+    <t>Check the code to see if it does write out the numbers 1 to 10. If you think it does then congratulate them on their great coding. Now ask them to copy the code into code runner and check it. Otherwise tell them where you think the error is in their code and ask them to try again.</t>
+  </si>
+  <si>
     <t>printing 1 to 10</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>I think I missed  I used the ", " instead of the ";"</t>
+  </si>
+  <si>
+    <t>Can you identify the problem expecially in the defination of the loop?</t>
+  </si>
+  <si>
+    <t>1.2.1.1</t>
+  </si>
+  <si>
+    <t>Right, now correct your code to provide the right solution to the problem</t>
+  </si>
+  <si>
+    <t>I don't know how to define a loop</t>
+  </si>
+  <si>
+    <t>There seems to be a problem with your loop defination. Relook at your code and tell me if you can correct it</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.2.1</t>
+  </si>
+  <si>
+    <t>A loop has a header and a body</t>
+  </si>
+  <si>
+    <t>Tell me the difference components that entail loop defination</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t>The start of the interation, the condition to end the loop and the increment of the iterating variable</t>
+  </si>
+  <si>
+    <t>What do you need to define in the header of the for loop</t>
+  </si>
+  <si>
+    <t>1.2.2.4</t>
+  </si>
+  <si>
+    <t>Could you write for me the syntax of a for loop in c</t>
+  </si>
+  <si>
+    <t>1.2.2.5</t>
+  </si>
+  <si>
+    <t>There is a missing start and the increment</t>
+  </si>
+  <si>
+    <t>Could you now look at the head of the solution provided and tell me  if all the component of the loop head are included</t>
+  </si>
+  <si>
+    <t>1.2.2.6</t>
   </si>
   <si>
     <t>#include&lt;stdio.h&gt;
 int main()
 {
     int i;
-    for(i=1,i&lt;=10,i++)
+    for(i=0;i&lt;=10;i++)
     {
         printf("%d ",i);
     }
 }</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>assistant</t>
-  </si>
-  <si>
-    <t>I am glad you know how to write a loop. Can you write a loop to displays numbers 1 to 10 [1.3.]</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>1.3.</t>
-  </si>
-  <si>
-    <t>OK let’s lets start by learning about variables, one of the building blocks of loops. Can you define a variable that will store number 5 [1.2.]</t>
-  </si>
-  <si>
-    <t>1.2.</t>
-  </si>
-  <si>
-    <t>I know what loops do</t>
-  </si>
-  <si>
-    <t>Great, can you tell me what loops do?[1.1.1.]</t>
-  </si>
-  <si>
-    <t>1.1.1.</t>
-  </si>
-  <si>
-    <t>That is correct, thats exactly what they are. Write for me the syntax of a for loop. [1.1.2.]</t>
-  </si>
-  <si>
-    <t>1.1.2.</t>
+    <t>Perfect, now can you provide me with the corrected code</t>
+  </si>
+  <si>
+    <t>I think it is perfect</t>
+  </si>
+  <si>
+    <t>Your printf statement seems to have a problem, can you indetify what the problem is</t>
+  </si>
+  <si>
+    <t>Integer display</t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t>I use the access specify %d and then provide the integer value</t>
+  </si>
+  <si>
+    <t>How do you display a integer using the printf statement</t>
+  </si>
+  <si>
+    <t>1.2.3.2</t>
+  </si>
+  <si>
+    <t>Can you correct your code now to display the integers</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+    int i;
+    for(i=1;i&lt;20;i++)
+    {
+        if(i%2==0)
+        {
+            printf("%d ", i);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>Write a program to display only even numbers between 1 and 20</t>
+  </si>
+  <si>
+    <t>Loops and if statements</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+    int i;
+    for(i=1;i&lt;20;i++)
+    {
+        if(i=="even")
+        {
+            printf("%d ", i);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>A number is even if when you divide by 2 there is no reminder</t>
+  </si>
+  <si>
+    <t>You seem to have a problem with your if statement. How do you know a number is even</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>You use the modulas operator</t>
+  </si>
+  <si>
+    <t>How do you check for the reminder of dividing two number</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Can you now use the modulas operator to correct your code</t>
+  </si>
+  <si>
+    <t>Use the for loop to calculate the sum of numbers between 1 and 10</t>
+  </si>
+  <si>
+    <t>Loops and aggregation</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+    int i;
+    int sum;
+    for(i=1;i&lt;10;i++)
+    {
+        sum+=i;
+    }
+    printf("%d",sum);
+}</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>I cant seem to see the issue with my code</t>
+  </si>
+  <si>
+    <t>There seems to be an issue with your sum, can you identify it?</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>The variable sum needs to be intialize. Which number should it be initialized too</t>
+  </si>
+  <si>
+    <t>Tell the user that they are right, thats exactly what they are. Now the use  to write the syntax of a for loop?</t>
+  </si>
+  <si>
+    <t>It reduces the amount of code I will end up writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is right and ask them to write for you the syntax of a for loop
+</t>
+  </si>
+  <si>
+    <t>Check if what he user has written is correct. If its correct ask the user to explain what each componenet of the for loop means</t>
+  </si>
+  <si>
+    <t>int i=5;</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>I don't know how to write the syntax of a for loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can write the code to display numbers 1 to 10 using the syntax provided
+</t>
   </si>
   <si>
     <t>1.1.</t>
   </si>
   <si>
-    <t>1.1.1.1.</t>
-  </si>
-  <si>
-    <t>int a =5</t>
-  </si>
-  <si>
-    <t>Good attempt, You missed a semi colon at the end of the statement, all statements in C have to end with a semi colon. Correct your code and submit again</t>
-  </si>
-  <si>
-    <t>variable defination</t>
-  </si>
-  <si>
-    <t>The syntax for the for loop is
-for(intialization;condition;increment)
-{
-      //what is to be reapeted
-}</t>
-  </si>
-  <si>
-    <t>That is correct,how do you write the initialization part of the loop if the loop was to start from 1?</t>
-  </si>
-  <si>
-    <t>1.1.1.2.</t>
-  </si>
-  <si>
-    <t>Your code is correct, can you now write a loop that only displays number even numbers</t>
-  </si>
-  <si>
-    <t>1.4.</t>
-  </si>
-  <si>
-    <t>Your code seems to have a problem at the loop defination, can you check to see if you can spot the error</t>
-  </si>
-  <si>
-    <t>i=1</t>
-  </si>
-  <si>
-    <t>That is correct, now write the condition part of the loop for a loop that will have to display numbers from 1 to 10</t>
-  </si>
-  <si>
-    <t>I cannot see the error</t>
-  </si>
-  <si>
-    <t>Okay, what sybols do you use to separate statements in the loop</t>
+    <t>Variables help in tracking the number of iterations</t>
+  </si>
+  <si>
+    <t>Check the user code, if it is correct tell the user the relationship between variables and loops, otherwise point out the error and ask the user to try again.</t>
+  </si>
+  <si>
+    <t>Tell the user they are correct, then tell them what for loops are and how variables are used in the for loop. Then ask the user if they were to write a loop that displays numbers 1 to 10, how will they use the variables to implement it.</t>
+  </si>
+  <si>
+    <t>I can use the variable to intialize the for loop by assigning the loop variable to 1. Also I can use the variable to check if the terminating condition has been reached</t>
+  </si>
+  <si>
+    <t>Tell the user they are correct and ask the user to write a code snippet that will use the for loop to display numbers 1 to 10</t>
   </si>
 </sst>
 </file>
@@ -205,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -215,16 +392,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -234,9 +501,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -244,26 +514,44 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,218 +1683,591 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="89.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.81640625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.36328125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.36328125" style="3"/>
+    <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.81640625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8.36328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="80" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="128" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="128" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="128" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="128" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="128" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="128" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="128" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="152" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="12">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="152" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="20" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="20" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="152" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="152" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="12">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="12">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="80" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="128" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="128" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="140" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="20" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="20" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
